--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Moldavie/Pandémie_de_Covid-19_en_Moldavie.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Moldavie/Pandémie_de_Covid-19_en_Moldavie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Moldavie</t>
+          <t>Pandémie_de_Covid-19_en_Moldavie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
-La pandémie de Covid-19 en Moldavie démarre officiellement le 7 mars 2020[3]. À la date du 17 septembre 2022, le bilan est de 11 808 morts.
+La pandémie de Covid-19 en Moldavie démarre officiellement le 7 mars 2020. À la date du 17 septembre 2022, le bilan est de 11 808 morts.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Moldavie</t>
+          <t>Pandémie_de_Covid-19_en_Moldavie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'immigration moldave vers l'Italie est importante. La Moldavie craignait de ne pas pouvoir prendre en charge toutes les personnes malades de retour (500 retours par jour jusqu'à la suspension des vols avec l'Italie le 9 mars 2020), et les malades locaux[4]. Le 11 mars est annoncée la mise en quarantaine des personnes atteintes qui entreraient dans le pays[4].
-Les écoles sont fermées et les rassemblements interdits[4].
-Le 23 janvier 2022, il est annoncé 409 397 cas de contamination[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'immigration moldave vers l'Italie est importante. La Moldavie craignait de ne pas pouvoir prendre en charge toutes les personnes malades de retour (500 retours par jour jusqu'à la suspension des vols avec l'Italie le 9 mars 2020), et les malades locaux. Le 11 mars est annoncée la mise en quarantaine des personnes atteintes qui entreraient dans le pays.
+Les écoles sont fermées et les rassemblements interdits.
+Le 23 janvier 2022, il est annoncé 409 397 cas de contamination.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Moldavie</t>
+          <t>Pandémie_de_Covid-19_en_Moldavie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
